--- a/output/DiagnosticReport/observation-imag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="492">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -414,7 +414,7 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/4.0/bodystructure-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/bodystructure-dh-base-1)
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/imagingstudy-diag-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/imagingstudy-diag-1)
 </t>
   </si>
   <si>
@@ -649,7 +649,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -664,10 +664,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -844,7 +841,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1747,7 +1744,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5334,11 +5331,9 @@
       <c r="W31" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5371,19 +5366,19 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5391,7 +5386,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5414,19 +5409,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5436,7 +5431,7 @@
         <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>45</v>
@@ -5454,11 +5449,11 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5499,10 +5494,10 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5510,11 +5505,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5533,19 +5528,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5570,14 +5565,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5594,7 +5589,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>55</v>
@@ -5609,27 +5604,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5744,7 +5739,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5861,7 +5856,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5884,19 +5879,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5933,7 +5928,7 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -5943,7 +5938,7 @@
         <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5964,10 +5959,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5978,10 +5973,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>45</v>
@@ -6003,19 +5998,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6044,7 +6039,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6062,7 +6057,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6083,10 +6078,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6097,7 +6092,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6123,16 +6118,16 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6181,7 +6176,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6202,10 +6197,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6216,7 +6211,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6239,19 +6234,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6300,7 +6295,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6315,19 +6310,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6335,7 +6330,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6358,16 +6353,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6417,7 +6412,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6438,13 +6433,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6452,11 +6447,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6475,19 +6470,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6536,7 +6531,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6551,19 +6546,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6571,11 +6566,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6594,19 +6589,19 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6655,7 +6650,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6670,19 +6665,19 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6690,7 +6685,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,16 +6708,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6772,7 +6767,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6793,13 +6788,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6807,7 +6802,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6830,17 +6825,17 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6889,7 +6884,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6904,19 +6899,19 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6924,7 +6919,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6947,19 +6942,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7008,7 +7003,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7017,7 +7012,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7026,24 +7021,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7066,19 +7061,19 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7106,37 +7101,37 @@
         <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7151,7 +7146,7 @@
         <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7162,11 +7157,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7185,19 +7180,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7225,11 +7220,11 @@
         <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7246,7 +7241,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7264,24 +7259,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7304,19 +7299,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7365,7 +7360,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7386,10 +7381,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7400,7 +7395,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7423,16 +7418,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7458,14 +7453,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7482,7 +7477,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7500,24 +7495,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7540,19 +7535,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7577,14 +7572,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7601,7 +7596,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7622,10 +7617,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7636,7 +7631,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7659,16 +7654,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7718,7 +7713,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7736,24 +7731,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7776,16 +7771,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7835,7 +7830,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7853,24 +7848,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7893,19 +7888,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7954,7 +7949,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7966,19 +7961,19 @@
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7989,7 +7984,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8104,7 +8099,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8221,11 +8216,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8247,10 +8242,10 @@
         <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>136</v>
@@ -8305,7 +8300,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8340,7 +8335,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8363,13 +8358,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8420,7 +8415,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8429,7 +8424,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8441,10 +8436,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8455,7 +8450,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8478,13 +8473,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8535,7 +8530,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8544,7 +8539,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8556,10 +8551,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8570,7 +8565,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8593,19 +8588,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8633,11 +8628,11 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8654,7 +8649,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8672,13 +8667,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8689,7 +8684,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8712,19 +8707,19 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8749,14 +8744,14 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8773,7 +8768,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8791,13 +8786,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8808,7 +8803,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8831,17 +8826,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8890,7 +8885,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8914,7 +8909,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8925,7 +8920,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8951,10 +8946,10 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9005,7 +9000,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9026,10 +9021,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9040,7 +9035,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9063,16 +9058,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9122,7 +9117,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9143,10 +9138,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9157,7 +9152,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9272,7 +9267,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9389,7 +9384,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9506,7 +9501,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9623,7 +9618,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9740,7 +9735,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9857,7 +9852,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9880,16 +9875,16 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9939,7 +9934,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9960,10 +9955,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9974,7 +9969,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9997,19 +9992,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10058,7 +10053,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10079,10 +10074,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10093,7 +10088,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10208,7 +10203,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10325,11 +10320,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10351,10 +10346,10 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>136</v>
@@ -10409,7 +10404,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10444,7 +10439,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10467,19 +10462,19 @@
         <v>56</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10504,14 +10499,14 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10528,7 +10523,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>55</v>
@@ -10546,16 +10541,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10563,7 +10558,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10586,19 +10581,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10647,7 +10642,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10665,24 +10660,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10705,19 +10700,19 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10745,37 +10740,37 @@
         <v>147</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -10790,7 +10785,7 @@
         <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10801,11 +10796,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10824,19 +10819,19 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10864,11 +10859,11 @@
         <v>147</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10885,7 +10880,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10903,24 +10898,24 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10946,16 +10941,16 @@
         <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11004,7 +10999,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11025,10 +11020,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-imag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="491">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-02:One category shall be 'imaging' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='imaging').exists()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -699,14 +699,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="imaging"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -5431,7 +5423,7 @@
         <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>45</v>
@@ -5449,10 +5441,10 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5494,10 +5486,10 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5505,11 +5497,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5531,16 +5523,16 @@
         <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5565,14 +5557,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5589,7 +5581,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>55</v>
@@ -5604,27 +5596,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5739,7 +5731,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5856,7 +5848,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5879,19 +5871,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5928,7 +5920,7 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -5938,7 +5930,7 @@
         <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5959,10 +5951,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5973,10 +5965,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>45</v>
@@ -5998,19 +5990,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6039,7 +6031,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6057,7 +6049,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6078,10 +6070,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6092,7 +6084,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6118,16 +6110,16 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6176,7 +6168,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6197,10 +6189,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6211,7 +6203,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6234,19 +6226,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6295,7 +6287,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6310,19 +6302,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6330,7 +6322,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6353,16 +6345,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6412,7 +6404,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6433,13 +6425,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6447,11 +6439,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6470,19 +6462,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6531,7 +6523,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6546,19 +6538,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6566,11 +6558,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6589,19 +6581,19 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6650,7 +6642,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6665,19 +6657,19 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6685,7 +6677,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6708,16 +6700,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6767,7 +6759,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6788,13 +6780,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6802,7 +6794,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6825,17 +6817,17 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6884,7 +6876,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6899,19 +6891,19 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6919,7 +6911,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6942,19 +6934,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7003,7 +6995,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7012,7 +7004,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7021,24 +7013,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7064,16 +7056,16 @@
         <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7101,37 +7093,37 @@
         <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7146,7 +7138,7 @@
         <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7157,11 +7149,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7183,16 +7175,16 @@
         <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7220,11 +7212,11 @@
         <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7241,7 +7233,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7259,24 +7251,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7299,19 +7291,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7360,7 +7352,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7381,10 +7373,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7395,7 +7387,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7421,13 +7413,13 @@
         <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7453,14 +7445,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7477,7 +7469,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7495,24 +7487,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7538,16 +7530,16 @@
         <v>213</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7572,14 +7564,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7596,7 +7588,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7617,10 +7609,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7631,7 +7623,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7654,16 +7646,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7713,7 +7705,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7731,24 +7723,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7771,16 +7763,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7830,7 +7822,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7848,24 +7840,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7888,19 +7880,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7949,7 +7941,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7961,19 +7953,19 @@
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7984,7 +7976,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8099,7 +8091,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8216,11 +8208,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8242,10 +8234,10 @@
         <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>136</v>
@@ -8300,7 +8292,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8335,7 +8327,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8358,13 +8350,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8415,7 +8407,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8424,7 +8416,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8436,10 +8428,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8450,7 +8442,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8473,13 +8465,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8530,7 +8522,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8539,7 +8531,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8551,10 +8543,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8565,7 +8557,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8591,16 +8583,16 @@
         <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8628,11 +8620,11 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8649,7 +8641,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8667,13 +8659,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8684,7 +8676,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8710,16 +8702,16 @@
         <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8744,14 +8736,14 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8768,7 +8760,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8786,13 +8778,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8803,7 +8795,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8826,17 +8818,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8885,7 +8877,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8909,7 +8901,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8920,7 +8912,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8946,10 +8938,10 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9000,7 +8992,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9021,10 +9013,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9035,7 +9027,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9058,16 +9050,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9117,7 +9109,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9138,10 +9130,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9152,7 +9144,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9267,7 +9259,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9384,7 +9376,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9501,7 +9493,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9618,7 +9610,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9735,7 +9727,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9852,7 +9844,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9875,16 +9867,16 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9934,7 +9926,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9955,10 +9947,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9969,7 +9961,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9992,19 +9984,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10053,7 +10045,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10074,10 +10066,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10088,7 +10080,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10203,7 +10195,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10320,11 +10312,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10346,10 +10338,10 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>136</v>
@@ -10404,7 +10396,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10439,7 +10431,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10465,16 +10457,16 @@
         <v>213</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10499,14 +10491,14 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10523,7 +10515,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>55</v>
@@ -10541,16 +10533,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10558,7 +10550,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10581,19 +10573,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10642,7 +10634,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10660,24 +10652,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10703,16 +10695,16 @@
         <v>213</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10740,37 +10732,37 @@
         <v>147</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -10785,7 +10777,7 @@
         <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10796,11 +10788,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10822,16 +10814,16 @@
         <v>213</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10859,11 +10851,11 @@
         <v>147</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10880,7 +10872,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10898,24 +10890,24 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10941,16 +10933,16 @@
         <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -10999,7 +10991,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11020,10 +11012,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-imag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="468">
   <si>
     <t>Path</t>
   </si>
@@ -757,77 +757,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1703,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1713,7 +1642,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5614,7 +5543,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>237</v>
       </c>
@@ -5624,31 +5553,35 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5696,7 +5629,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5708,22 +5641,22 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5731,11 +5664,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5751,19 +5684,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5801,19 +5734,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5825,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5834,13 +5767,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5848,18 +5781,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5871,19 +5804,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5920,23 +5853,25 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB36" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5945,43 +5880,41 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5990,19 +5923,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6027,11 +5960,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6049,13 +5984,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6064,19 +5999,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6084,7 +6019,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6107,20 +6042,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6168,7 +6101,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6189,21 +6122,21 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6211,13 +6144,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6226,19 +6159,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6287,13 +6218,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6302,19 +6233,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6322,7 +6253,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6333,7 +6264,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6345,18 +6276,20 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6404,16 +6337,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6422,28 +6355,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6459,22 +6392,22 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6499,13 +6432,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6523,7 +6456,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6532,68 +6465,68 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6618,13 +6551,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6642,13 +6575,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6657,27 +6590,27 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6688,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6697,21 +6630,23 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6759,13 +6694,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6780,13 +6715,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6794,7 +6729,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6805,7 +6740,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6814,21 +6749,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6852,13 +6787,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6876,13 +6811,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6891,27 +6826,27 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6931,22 +6866,22 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6971,13 +6906,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6995,7 +6930,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7004,7 +6939,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7013,24 +6948,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7053,20 +6988,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7090,13 +7023,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7114,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7123,7 +7056,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7132,35 +7065,35 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7172,20 +7105,18 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>213</v>
+        <v>361</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7209,13 +7140,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7233,13 +7164,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7251,24 +7182,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7291,19 +7222,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7352,7 +7283,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7364,7 +7295,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7373,10 +7304,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7387,7 +7318,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7410,17 +7341,15 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7445,13 +7374,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7469,7 +7398,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7481,41 +7410,41 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7527,20 +7456,18 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7564,13 +7491,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7588,19 +7515,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7609,10 +7536,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7623,41 +7550,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7705,42 +7634,42 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>98</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7763,17 +7692,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7822,7 +7749,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7831,7 +7758,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7840,19 +7767,19 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7868,7 +7795,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7880,20 +7807,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7947,13 +7870,13 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7962,10 +7885,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7976,7 +7899,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7999,16 +7922,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8032,13 +7959,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8056,7 +7983,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8068,19 +7995,19 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8091,11 +8018,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8114,18 +8041,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8149,13 +8078,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8173,7 +8102,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8185,19 +8114,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8208,42 +8137,40 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>166</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8292,19 +8219,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8316,7 +8243,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8327,7 +8254,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8350,13 +8277,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8407,7 +8334,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8416,7 +8343,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8428,10 +8355,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8440,9 +8367,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8453,27 +8380,29 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8522,16 +8451,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8543,10 +8472,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8557,7 +8486,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8580,20 +8509,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8617,13 +8542,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8641,7 +8566,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>419</v>
+        <v>115</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8653,19 +8578,19 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8676,11 +8601,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8699,20 +8624,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8736,31 +8659,31 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8772,19 +8695,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8795,7 +8718,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8803,7 +8726,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
@@ -8815,21 +8738,21 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8877,7 +8800,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>141</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8886,7 +8809,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8901,7 +8824,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8912,7 +8835,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8932,18 +8855,20 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8968,13 +8893,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8992,7 +8917,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>150</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9013,10 +8938,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9025,9 +8950,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9038,10 +8963,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9050,16 +8975,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>153</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>155</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9109,13 +9034,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>156</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9130,10 +9055,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>451</v>
+        <v>157</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9144,7 +9069,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9164,18 +9089,20 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9224,7 +9151,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9236,7 +9163,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9248,7 +9175,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9259,11 +9186,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9279,19 +9206,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9329,19 +9256,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9353,7 +9280,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9362,10 +9289,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>116</v>
+        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9376,7 +9303,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9384,10 +9311,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9399,18 +9326,20 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9458,16 +9387,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9479,10 +9408,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>98</v>
+        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9493,7 +9422,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9513,20 +9442,18 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9551,13 +9478,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9575,7 +9502,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9587,7 +9514,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9599,7 +9526,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9610,18 +9537,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9630,19 +9557,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9692,19 +9619,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9716,7 +9643,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9727,41 +9654,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9809,19 +9738,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9844,7 +9773,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9852,10 +9781,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9867,18 +9796,20 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9902,13 +9833,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9926,13 +9857,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9944,16 +9875,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>450</v>
+        <v>233</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9961,7 +9892,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9972,7 +9903,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9984,19 +9915,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>295</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10045,13 +9976,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10063,24 +9994,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>301</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10103,16 +10034,20 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10136,13 +10071,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10160,7 +10095,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10169,10 +10104,10 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10181,10 +10116,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10195,11 +10130,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10218,18 +10153,20 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10253,13 +10190,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10277,7 +10214,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>119</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10289,34 +10226,34 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10329,25 +10266,25 @@
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10396,7 +10333,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10408,7 +10345,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10417,615 +10354,20 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO79">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11035,7 +10377,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-imag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="491">
   <si>
     <t>Path</t>
   </si>
@@ -757,6 +757,77 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1632,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1642,7 +1713,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5543,7 +5614,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>237</v>
       </c>
@@ -5553,35 +5624,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5629,7 +5696,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5641,22 +5708,22 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5664,11 +5731,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5684,19 +5751,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5734,19 +5801,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5758,7 +5825,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5767,13 +5834,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5781,18 +5848,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5804,19 +5871,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5853,25 +5920,23 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5880,41 +5945,43 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5923,19 +5990,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5960,13 +6027,11 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5984,13 +6049,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5999,19 +6064,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6019,7 +6084,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6042,18 +6107,20 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6101,7 +6168,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6122,21 +6189,21 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6144,13 +6211,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6159,17 +6226,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6218,13 +6287,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6233,19 +6302,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6253,7 +6322,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6264,7 +6333,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6276,20 +6345,18 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6337,16 +6404,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6355,28 +6422,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6392,22 +6459,22 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6432,13 +6499,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6456,7 +6523,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6465,68 +6532,68 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6551,13 +6618,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6575,13 +6642,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6590,27 +6657,27 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6621,7 +6688,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6630,23 +6697,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6694,13 +6759,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6715,13 +6780,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6729,7 +6794,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6740,7 +6805,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6749,21 +6814,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6787,13 +6852,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6811,13 +6876,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6826,27 +6891,27 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6866,22 +6931,22 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6906,13 +6971,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6930,7 +6995,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6939,7 +7004,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6948,24 +7013,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6988,18 +7053,20 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7023,13 +7090,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7047,7 +7114,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7056,7 +7123,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7065,35 +7132,35 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7105,18 +7172,20 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7140,13 +7209,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7164,13 +7233,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7182,24 +7251,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7222,19 +7291,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7283,7 +7352,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7295,7 +7364,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>375</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7304,10 +7373,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7318,7 +7387,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7341,15 +7410,17 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7374,13 +7445,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7398,7 +7469,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>115</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7410,41 +7481,41 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7456,18 +7527,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>135</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7491,13 +7564,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7515,19 +7588,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7536,10 +7609,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7550,43 +7623,41 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7634,42 +7705,42 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>381</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7692,15 +7763,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7749,7 +7822,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7758,7 +7831,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7767,19 +7840,19 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7795,7 +7868,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7807,16 +7880,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7870,13 +7947,13 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7885,10 +7962,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7899,7 +7976,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7922,20 +7999,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7959,13 +8032,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7983,7 +8056,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7995,19 +8068,19 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8018,11 +8091,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8041,20 +8114,18 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8078,13 +8149,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8102,7 +8173,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>119</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8114,19 +8185,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8137,40 +8208,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>413</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8219,19 +8292,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8243,7 +8316,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8254,7 +8327,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8277,13 +8350,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8334,7 +8407,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8343,7 +8416,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8355,10 +8428,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8367,9 +8440,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8380,29 +8453,27 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8451,16 +8522,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8472,10 +8543,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8486,7 +8557,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8509,16 +8580,20 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8542,13 +8617,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8566,7 +8641,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>115</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8578,19 +8653,19 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8601,11 +8676,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8624,18 +8699,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8659,31 +8736,31 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>119</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8695,19 +8772,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8718,7 +8795,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8726,7 +8803,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
@@ -8738,21 +8815,21 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8800,7 +8877,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8809,7 +8886,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8824,7 +8901,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>98</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8835,7 +8912,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8855,20 +8932,18 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>144</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8893,13 +8968,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8917,7 +8992,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>150</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8938,10 +9013,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8950,9 +9025,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8963,10 +9038,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -8975,16 +9050,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>152</v>
+        <v>446</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>153</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>155</v>
+        <v>449</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9034,13 +9109,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>156</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9055,10 +9130,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>157</v>
+        <v>451</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9069,7 +9144,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9089,20 +9164,18 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9151,7 +9224,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9163,7 +9236,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9175,7 +9248,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9186,11 +9259,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9206,19 +9279,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>436</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>437</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>136</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9256,19 +9329,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>435</v>
+        <v>119</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9280,7 +9353,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9289,10 +9362,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>440</v>
+        <v>116</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9303,7 +9376,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9311,10 +9384,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9326,20 +9399,18 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>370</v>
+        <v>57</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>139</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9387,16 +9458,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9408,10 +9479,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>447</v>
+        <v>98</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9422,7 +9493,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9442,18 +9513,20 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9478,13 +9551,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9502,7 +9575,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9514,7 +9587,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9526,7 +9599,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9537,18 +9610,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9557,19 +9630,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9619,19 +9692,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9643,7 +9716,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9654,43 +9727,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>382</v>
+        <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>160</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9738,19 +9809,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>384</v>
+        <v>162</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9773,7 +9844,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9781,10 +9852,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9796,20 +9867,18 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>213</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9833,13 +9902,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9857,13 +9926,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9875,16 +9944,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9892,7 +9961,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9903,7 +9972,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9915,19 +9984,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9976,13 +10045,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -9994,24 +10063,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10034,20 +10103,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>113</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10071,13 +10136,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10095,7 +10160,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>115</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10104,10 +10169,10 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10116,10 +10181,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>311</v>
+        <v>116</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10130,11 +10195,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10153,20 +10218,18 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10190,13 +10253,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10214,7 +10277,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>119</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10226,34 +10289,34 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10266,25 +10329,25 @@
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10333,7 +10396,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10345,29 +10408,624 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO74">
+  <autoFilter ref="A1:AO79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10377,7 +11035,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-imag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="469">
   <si>
     <t>Path</t>
   </si>
@@ -732,13 +732,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1069,6 +1063,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1443,6 +1440,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -5486,13 +5489,11 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5525,27 +5526,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5568,19 +5569,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5629,7 +5630,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5644,19 +5645,19 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5664,7 +5665,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5687,16 +5688,16 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5746,7 +5747,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5767,13 +5768,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5781,11 +5782,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5804,19 +5805,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5865,7 +5866,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5880,19 +5881,19 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5900,11 +5901,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5923,19 +5924,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5984,7 +5985,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5999,19 +6000,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6019,7 +6020,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6042,16 +6043,16 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6101,7 +6102,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6122,13 +6123,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6136,7 +6137,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6159,17 +6160,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6218,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6233,19 +6234,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6253,7 +6254,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6276,19 +6277,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6337,7 +6338,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6346,7 +6347,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6355,24 +6356,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6398,16 +6399,16 @@
         <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6435,37 +6436,37 @@
         <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6480,7 +6481,7 @@
         <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6491,11 +6492,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6517,16 +6518,16 @@
         <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6554,10 +6555,10 @@
         <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6575,7 +6576,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6593,24 +6594,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6633,19 +6634,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6694,7 +6695,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6715,10 +6716,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6729,7 +6730,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6755,13 +6756,13 @@
         <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6787,14 +6788,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6829,24 +6830,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6872,16 +6873,16 @@
         <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6906,14 +6907,14 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6951,10 +6952,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6965,7 +6966,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6988,16 +6989,16 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7047,7 +7048,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7065,24 +7066,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7105,16 +7106,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7164,7 +7165,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7182,24 +7183,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7222,19 +7223,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7283,7 +7284,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7295,19 +7296,19 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7318,7 +7319,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7433,7 +7434,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7550,11 +7551,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7576,10 +7577,10 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>136</v>
@@ -7634,7 +7635,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7669,7 +7670,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7692,13 +7693,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7749,7 +7750,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7758,7 +7759,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7770,10 +7771,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7784,7 +7785,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7807,13 +7808,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7864,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7873,7 +7874,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7885,10 +7886,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7899,7 +7900,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7925,16 +7926,16 @@
         <v>213</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7962,11 +7963,11 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8001,13 +8002,13 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8018,7 +8019,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8044,16 +8045,16 @@
         <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8078,14 +8079,14 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8120,13 +8121,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8137,7 +8138,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8160,17 +8161,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8219,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8243,7 +8244,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8254,7 +8255,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8280,10 +8281,10 @@
         <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8334,7 +8335,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8355,10 +8356,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8369,7 +8370,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8392,16 +8393,16 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8451,7 +8452,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8472,10 +8473,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8486,7 +8487,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8601,7 +8602,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8718,7 +8719,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8835,7 +8836,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8952,7 +8953,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9069,7 +9070,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9186,7 +9187,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9209,16 +9210,16 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9268,7 +9269,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9289,10 +9290,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9303,7 +9304,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9326,19 +9327,19 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9387,7 +9388,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9408,10 +9409,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9422,7 +9423,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9537,7 +9538,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9654,11 +9655,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9680,10 +9681,10 @@
         <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>136</v>
@@ -9738,7 +9739,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9773,7 +9774,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9799,13 +9800,13 @@
         <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>227</v>
@@ -9833,13 +9834,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>230</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9857,7 +9858,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>55</v>
@@ -9875,16 +9876,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9892,7 +9893,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9915,19 +9916,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9976,7 +9977,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9994,24 +9995,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10037,16 +10038,16 @@
         <v>213</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10074,37 +10075,37 @@
         <v>147</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>67</v>
@@ -10119,7 +10120,7 @@
         <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10130,11 +10131,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10156,16 +10157,16 @@
         <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10193,10 +10194,10 @@
         <v>147</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10214,7 +10215,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10232,24 +10233,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10275,16 +10276,16 @@
         <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10333,7 +10334,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10354,10 +10355,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
